--- a/Квалиф/_3ПКС-420/3ПКС-420.xlsx
+++ b/Квалиф/_3ПКС-420/3ПКС-420.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\Квалиф\_3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F97FB9-CF24-4438-B6AC-968FFEA9EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C74C1-3CD4-46FD-92D7-86B5DF64B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,9 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,7 +592,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -586,27 +603,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:26" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -668,7 +685,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4">
@@ -749,7 +766,7 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4">
@@ -877,7 +894,7 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -1221,7 +1238,7 @@
       <c r="F17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -1296,7 +1313,7 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="4">
@@ -1341,7 +1358,7 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4">
@@ -1500,7 +1517,7 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="4">
@@ -1585,7 +1602,7 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="4">
